--- a/biology/Zoologie/David_Mark_Hillis/David_Mark_Hillis.xlsx
+++ b/biology/Zoologie/David_Mark_Hillis/David_Mark_Hillis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">David Mark Hillis, né le 21 décembre 1958 à Copenhague, est un herpétologue et biologiste systématicien américain.
 Il est le frère de William Daniel Hillis (en), informaticien et de Argye E. Hillis, professeure de neurologie à l'université Johns-Hopkins.
-Associé à un groupe de recherche en bio-informatique, il est le créateur du « graphique de Hillis », utilisé en biologie de l'évolution pour représenter un arbre phylogénétique du vivant sous une forme circulaire[1],[2]. 
+Associé à un groupe de recherche en bio-informatique, il est le créateur du « graphique de Hillis », utilisé en biologie de l'évolution pour représenter un arbre phylogénétique du vivant sous une forme circulaire,. 
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>(en) David Sadava, David M. Hillis, H. Craig Heller et May R. Berenbaum, Life : The Science of Biology, Sunderland (Massachusetts) / Gordonsville (Virginie), Sinauer Associates, Inc. / W. H. Freeman &amp; Co., 2011, 9e éd., xliv + 1266 + [78] (ISBN 978-1-4292-1962-4)</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>(en) David Sadava, David M. Hillis, H. Craig Heller et May R. Berenbaum, Life : The Science of Biology, Sunderland (Massachusetts) / Gordonsville (Virginie), Sinauer Associates, Inc. / W. H. Freeman &amp; Co., 2011, 9e éd., xliv + 1266 +  (ISBN 978-1-4292-1962-4)</t>
         </is>
       </c>
     </row>
@@ -543,7 +557,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Prix MacArthur dans la catégorie « Molecular Biologist », 1999
 Membre de l'Académie américaine des arts et des sciences, 2000
@@ -575,7 +591,9 @@
           <t>Quelques espèces décrites</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Rana (Laurasiarana) okinavana Hillis &amp; Wilcox, 2005 Syn. Babina okinavana (Boettger, 1895)
 Craugastor polymniae (Campbell, Lamar &amp; Hillis, 1989)
